--- a/gamedata/battle5/buffs.xlsx
+++ b/gamedata/battle5/buffs.xlsx
@@ -486,7 +486,7 @@
         <v>findarea</v>
       </c>
       <c r="G2" s="1" t="str">
-        <v>-1|</v>
+        <v>2|-1</v>
       </c>
       <c r="H2" s="1" t="str">
         <v>enemy|</v>

--- a/gamedata/battle5/buffs.xlsx
+++ b/gamedata/battle5/buffs.xlsx
@@ -417,9 +417,15 @@
     <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="5"/>
     <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="5"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="18"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -439,31 +445,55 @@
         <v>turns</v>
       </c>
       <c r="F1" s="1" t="str">
+        <v>triggertimes</v>
+      </c>
+      <c r="G1" s="1" t="str">
+        <v>trigger</v>
+      </c>
+      <c r="H1" s="1" t="str">
         <v>findfunc</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="I1" s="1" t="str">
         <v>findvals</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="J1" s="1" t="str">
         <v>findstrvals</v>
       </c>
-      <c r="I1" s="1" t="str">
+      <c r="K1" s="1" t="str">
+        <v>coverfunc</v>
+      </c>
+      <c r="L1" s="1" t="str">
+        <v>covervals</v>
+      </c>
+      <c r="M1" s="1" t="str">
+        <v>coverstrvals</v>
+      </c>
+      <c r="N1" s="1" t="str">
         <v>attachfunc</v>
       </c>
-      <c r="J1" s="1" t="str">
+      <c r="O1" s="1" t="str">
         <v>attachvals</v>
       </c>
-      <c r="K1" s="1" t="str">
+      <c r="P1" s="1" t="str">
         <v>attachstrvals</v>
       </c>
-      <c r="L1" s="1" t="str">
+      <c r="Q1" s="1" t="str">
         <v>triggerfunc</v>
       </c>
-      <c r="M1" s="1" t="str">
+      <c r="R1" s="1" t="str">
         <v>triggetvals</v>
       </c>
-      <c r="N1" s="1" t="str">
+      <c r="S1" s="1" t="str">
         <v>triggerstrvals</v>
+      </c>
+      <c r="T1" s="1" t="str">
+        <v>removefunc</v>
+      </c>
+      <c r="U1" s="1" t="str">
+        <v>removevals</v>
+      </c>
+      <c r="V1" s="1" t="str">
+        <v>removestrvals</v>
       </c>
     </row>
     <row r="2">
@@ -482,14 +512,38 @@
       <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="F2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G2" s="1" t="str">
+        <v>find|</v>
+      </c>
+      <c r="H2" s="1" t="str">
         <v>findarea</v>
       </c>
-      <c r="G2" s="1" t="str">
+      <c r="I2" s="1" t="str">
         <v>2|-1</v>
       </c>
-      <c r="H2" s="1" t="str">
+      <c r="J2" s="1" t="str">
         <v>enemy|</v>
+      </c>
+      <c r="K2" s="1" t="str">
+        <v>covereffect</v>
+      </c>
+      <c r="L2" s="1" t="str">
+        <v>1|</v>
+      </c>
+      <c r="M2" s="1" t="str">
+        <v>|</v>
+      </c>
+      <c r="Q2" s="1" t="str">
+        <v>findbufffrom</v>
+      </c>
+      <c r="R2" s="1" t="str">
+        <v>|</v>
+      </c>
+      <c r="S2" s="1" t="str">
+        <v>|</v>
       </c>
     </row>
     <row r="3">
@@ -500,7 +554,7 @@
         <v>减伤</v>
       </c>
       <c r="C3" s="1" t="str">
-        <v>REDUCE_DAMAGE</v>
+        <v>CHG_DAMAGE</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -508,14 +562,38 @@
       <c r="E3" s="1">
         <v>2</v>
       </c>
-      <c r="F3" s="1" t="str">
+      <c r="F3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G3" s="1" t="str">
+        <v>attack|</v>
+      </c>
+      <c r="H3" s="1" t="str">
         <v>findme</v>
       </c>
-      <c r="G3" s="1" t="str">
+      <c r="I3" s="1" t="str">
         <v>|</v>
       </c>
-      <c r="H3" s="1" t="str">
+      <c r="J3" s="1" t="str">
         <v>|</v>
+      </c>
+      <c r="K3" s="1" t="str">
+        <v>coverid</v>
+      </c>
+      <c r="L3" s="1" t="str">
+        <v>3|</v>
+      </c>
+      <c r="M3" s="1" t="str">
+        <v>|</v>
+      </c>
+      <c r="N3" s="1" t="str">
+        <v>chgprops</v>
+      </c>
+      <c r="O3" s="1" t="str">
+        <v>20|</v>
+      </c>
+      <c r="P3" s="1" t="str">
+        <v>reducedamagetome|</v>
       </c>
     </row>
   </sheetData>
